--- a/scripts/us-open-2019.xlsx
+++ b/scripts/us-open-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F880E25-FFEF-944D-907F-5B5D6D67ABE4}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB2B5D9-B924-4146-ADAF-85FE5166ECE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1100" uniqueCount="651">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="654">
   <si>
     <t>Tier A</t>
   </si>
@@ -2005,6 +2005,15 @@
   </si>
   <si>
     <t>Tyrell Hatton</t>
+  </si>
+  <si>
+    <t>Nick Royer</t>
+  </si>
+  <si>
+    <t>Tony Boyle</t>
+  </si>
+  <si>
+    <t>Tony Drake</t>
   </si>
 </sst>
 </file>
@@ -8027,10 +8036,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B658F6-4656-0A47-B0F5-4546CACA52C3}">
-  <dimension ref="A1:E95"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="C92" sqref="C92:E95"/>
+      <selection activeCell="F96" sqref="F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8835,6 +8844,153 @@
         <v>348</v>
       </c>
     </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A97" s="61" t="s">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A98" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B98" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C98" s="61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A99" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="B99" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C99" s="61" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A100" s="61" t="s">
+        <v>57</v>
+      </c>
+      <c r="B100" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="C100" s="61" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A101" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B101" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="C101" s="61" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A103" s="61" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A104" s="61" t="s">
+        <v>32</v>
+      </c>
+      <c r="B104" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C104" s="61" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A105" s="61" t="s">
+        <v>55</v>
+      </c>
+      <c r="B105" s="61" t="s">
+        <v>36</v>
+      </c>
+      <c r="C105" s="61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A106" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B106" s="61" t="s">
+        <v>80</v>
+      </c>
+      <c r="C106" s="61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A107" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="B107" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="C107" s="61" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A109" s="61" t="s">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A110" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B110" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" s="61" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A111" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="B111" s="61" t="s">
+        <v>39</v>
+      </c>
+      <c r="C111" s="61" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A112" s="61" t="s">
+        <v>72</v>
+      </c>
+      <c r="B112" s="61" t="s">
+        <v>81</v>
+      </c>
+      <c r="C112" s="61" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A113" s="61" t="s">
+        <v>62</v>
+      </c>
+      <c r="B113" s="61" t="s">
+        <v>85</v>
+      </c>
+      <c r="C113" s="61" t="s">
+        <v>341</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/us-open-2019.xlsx
+++ b/scripts/us-open-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AB2B5D9-B924-4146-ADAF-85FE5166ECE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A3467-ABA2-0140-AFF6-E55E8E54CCC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="654">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="655">
   <si>
     <t>Tier A</t>
   </si>
@@ -2014,6 +2014,9 @@
   </si>
   <si>
     <t>Tony Drake</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Nick Cocalis</t>
   </si>
 </sst>
 </file>
@@ -8036,10 +8039,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B658F6-4656-0A47-B0F5-4546CACA52C3}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="F96" sqref="F96"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="E110" sqref="E110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8991,6 +8994,55 @@
         <v>341</v>
       </c>
     </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A115" s="61" t="s">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A116" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B116" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="C116" s="61" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A117" s="61" t="s">
+        <v>40</v>
+      </c>
+      <c r="B117" s="61" t="s">
+        <v>47</v>
+      </c>
+      <c r="C117" s="61" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A118" s="61" t="s">
+        <v>86</v>
+      </c>
+      <c r="B118" s="61" t="s">
+        <v>84</v>
+      </c>
+      <c r="C118" s="61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A119" s="61" t="s">
+        <v>326</v>
+      </c>
+      <c r="B119" s="61" t="s">
+        <v>422</v>
+      </c>
+      <c r="C119" s="61" t="s">
+        <v>422</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/scripts/us-open-2019.xlsx
+++ b/scripts/us-open-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{478A3467-ABA2-0140-AFF6-E55E8E54CCC6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567B9EE0-41B8-5C49-AF6C-D5614C7750C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1971,9 +1971,6 @@
     <t xml:space="preserve">Brett Kubaszewski </t>
   </si>
   <si>
-    <t>Matthew Kilianski</t>
-  </si>
-  <si>
     <t>Alex Duff</t>
   </si>
   <si>
@@ -2017,6 +2014,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Nick Cocalis</t>
+  </si>
+  <si>
+    <t>Matt Kilianski</t>
   </si>
 </sst>
 </file>
@@ -8041,8 +8041,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B658F6-4656-0A47-B0F5-4546CACA52C3}">
   <dimension ref="A1:E119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
-      <selection activeCell="E110" sqref="E110"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -8300,7 +8300,7 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="61" t="s">
-        <v>639</v>
+        <v>654</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
@@ -8349,7 +8349,7 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="61" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.2">
@@ -8398,7 +8398,7 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="61" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.2">
@@ -8447,7 +8447,7 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="61" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="E49" s="65"/>
     </row>
@@ -8501,7 +8501,7 @@
     </row>
     <row r="55" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A55" s="61" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="E55" s="60"/>
     </row>
@@ -8554,7 +8554,7 @@
     </row>
     <row r="61" spans="1:5" ht="16" x14ac:dyDescent="0.2">
       <c r="A61" s="64" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="E61" s="60"/>
     </row>
@@ -8604,7 +8604,7 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="61" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
@@ -8653,7 +8653,7 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="61" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
@@ -8702,7 +8702,7 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="61" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
@@ -8751,7 +8751,7 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="61" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
@@ -8800,7 +8800,7 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="61" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
@@ -8833,7 +8833,7 @@
         <v>248</v>
       </c>
       <c r="C94" s="61" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
@@ -8849,7 +8849,7 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="61" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
@@ -8898,7 +8898,7 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A103" s="61" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
@@ -8947,7 +8947,7 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A109" s="61" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
@@ -8996,7 +8996,7 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A115" s="61" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">

--- a/scripts/us-open-2019.xlsx
+++ b/scripts/us-open-2019.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mweimer/Documents/Github/golf-pool/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567B9EE0-41B8-5C49-AF6C-D5614C7750C9}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{688E053D-7451-984C-9DA1-98CA7F209F6D}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="16420" tabRatio="868" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="655">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1165" uniqueCount="656">
   <si>
     <t>Tier A</t>
   </si>
@@ -2017,6 +2017,9 @@
   </si>
   <si>
     <t>Matt Kilianski</t>
+  </si>
+  <si>
+    <t>Nick Brohas</t>
   </si>
 </sst>
 </file>
@@ -8039,10 +8042,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{87B658F6-4656-0A47-B0F5-4546CACA52C3}">
-  <dimension ref="A1:E119"/>
+  <dimension ref="A1:E125"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView tabSelected="1" topLeftCell="A107" workbookViewId="0">
+      <selection activeCell="E132" sqref="E132"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -9043,6 +9046,55 @@
         <v>422</v>
       </c>
     </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A121" s="61" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A122" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="B122" s="61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C122" s="61" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A123" s="61" t="s">
+        <v>56</v>
+      </c>
+      <c r="B123" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="C123" s="61" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A124" s="61" t="s">
+        <v>58</v>
+      </c>
+      <c r="B124" s="61" t="s">
+        <v>75</v>
+      </c>
+      <c r="C124" s="61" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A125" s="61" t="s">
+        <v>334</v>
+      </c>
+      <c r="B125" s="61" t="s">
+        <v>593</v>
+      </c>
+      <c r="C125" s="61" t="s">
+        <v>62</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
